--- a/medicine/Pharmacie/Triméthoxyamphétamine/Triméthoxyamphétamine.xlsx
+++ b/medicine/Pharmacie/Triméthoxyamphétamine/Triméthoxyamphétamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trim%C3%A9thoxyamph%C3%A9tamine</t>
+          <t>Triméthoxyamphétamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les triméthoxyamphétamines (TMA) sont une famille d'isomères de substances psychotropes aux propriétés hallucinogènes. Le plus connu est le TMA-2[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les triméthoxyamphétamines (TMA) sont une famille d'isomères de substances psychotropes aux propriétés hallucinogènes. Le plus connu est le TMA-2.
 Elles ont été étudiées par Alexander Shulgin.
 Elles sont considérées comme des stupéfiants et figurent dans la Convention sur les substances psychotropes de 1971.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trim%C3%A9thoxyamph%C3%A9tamine</t>
+          <t>Triméthoxyamphétamine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe six isomères de TMA qui ne diffèrent entre eux que par la position de trois groupements méthoxy :
 TMA    ou 3,4,5-triméthoxyamphétamine, numéro CAS 1082-88-8
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trim%C3%A9thoxyamph%C3%A9tamine</t>
+          <t>Triméthoxyamphétamine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,11 +565,13 @@
           <t>Effets et conséquences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agirait d'hallucinogènes plus puissants que la mescaline[1].
-Les effets psychiques incluent hallucinations, pseudo-hallucinations, synesthésie[1].
-Des cas de décès ont été recensés liés à la faible marge d'erreur entre dose psychotrope et dose létale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agirait d'hallucinogènes plus puissants que la mescaline.
+Les effets psychiques incluent hallucinations, pseudo-hallucinations, synesthésie.
+Des cas de décès ont été recensés liés à la faible marge d'erreur entre dose psychotrope et dose létale.
 </t>
         </is>
       </c>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Trim%C3%A9thoxyamph%C3%A9tamine</t>
+          <t>Triméthoxyamphétamine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme pour la plupart des « drogues de synthèse », la production s'effectue près des lieux de consommation grâce à la mise en œuvre de laboratoires clandestins mobiles.
 </t>
